--- a/CountryData/Senegal/Senegal_Workbook.xlsx
+++ b/CountryData/Senegal/Senegal_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Senegal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patti\OneDrive\Documents\ElledMap\CountryData\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9482CF41-95C6-4E0F-BF8E-FC5D7AAB4F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87806E1B-E1A0-408F-9958-2679DD515270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="27285" yWindow="5760" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Senegal_Popup" sheetId="1" r:id="rId1"/>
@@ -97,122 +97,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Petroleum Code 2019 (“Law 2019-03”) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(French)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Local Content Law 2019 (“Law 2019-04”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (French)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Investment Law (“Law 2004-06”)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (French)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>July 2021 –</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Senegal Sets Up a Local Content Monitoring Committee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(French)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">February 2021 – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Macky Sall's Guidelines on Oil and Gas Projects in Senegal</t>
     </r>
     <r>
       <rPr>
@@ -262,22 +147,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Columbia Centre on Sustainable Investment (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local Content: Senegal - Petroleum</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <u/>
         <sz val="11"/>
@@ -322,11 +191,26 @@
       <t xml:space="preserve">2018 Reconciliation Report </t>
     </r>
   </si>
+  <si>
+    <t>Petroleum Code 2019 (“Law 2019-03”) (French)</t>
+  </si>
+  <si>
+    <t>Investment Law (“Law 2004-06”) (French)</t>
+  </si>
+  <si>
+    <t>July 2021 – Senegal Sets Up a Local Content Monitoring Committee (French)</t>
+  </si>
+  <si>
+    <t>February 2021 – Macky Sall's Guidelines on Oil and Gas Projects in Senegal (French)</t>
+  </si>
+  <si>
+    <t>Columbia Centre on Sustainable Investment (2019) – Local Content: Senegal - Petroleum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1001,9 +885,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1038,6 +919,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1394,11 +1276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D30"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1293,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1420,7 +1302,7 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
@@ -1431,7 +1313,7 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="7"/>
@@ -1442,7 +1324,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="7"/>
@@ -1453,7 +1335,7 @@
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>168</v>
       </c>
       <c r="C6" s="7"/>
@@ -1464,7 +1346,7 @@
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="8"/>
@@ -1475,7 +1357,7 @@
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1488,7 +1370,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10"/>
@@ -1514,7 +1396,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="6"/>
@@ -1523,7 +1405,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="6"/>
@@ -1532,7 +1414,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="6"/>
@@ -1556,8 +1438,8 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>21</v>
+      <c r="A18" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="6"/>
@@ -1565,8 +1447,8 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>22</v>
+      <c r="A19" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="6"/>
@@ -1581,7 +1463,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="11"/>
@@ -1590,19 +1472,19 @@
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="19"/>
+      <c r="A23" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1615,7 +1497,7 @@
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="11"/>
@@ -1624,7 +1506,7 @@
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="6"/>
@@ -1632,26 +1514,26 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+    <row r="27" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="6"/>
@@ -1675,23 +1557,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=SN"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=SN"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=SN"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/senegal"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/191/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://www.iea.org/policies/11823-petroleum-code-2019-law-no-2019-03"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://senpetrogaz.sn/2020/02/27/loi-n2019-04-du-24-janvier-2019-relative-au-contenu-local-dans-le-secteur-des-hydrocarbures-2/"/>
-    <hyperlink ref="A15" r:id="rId9" display="https://investmentpolicy.unctad.org/investment-laws/laws/77/senegal-investment-code"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://www.journaldebrazza.com/le-senegal-se-dote-dun-comite-de-suivi-du-contenu-local/"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://laviesenegalaise.com/les-directives-de-macky-sall-sur-les-projets-petroliers-et-gaziers-au-senegal/"/>
-    <hyperlink ref="A22" r:id="rId12" display="https://www.lexology.com/library/detail.aspx?g=701d413d-0956-4dd4-8e9a-7d5848efd5ed"/>
-    <hyperlink ref="A26" r:id="rId13" display="https://itie.sn/"/>
-    <hyperlink ref="A29" r:id="rId14" display="https://appsenegal.com/"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=SN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=SN" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=SN" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/senegal" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/191/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://senpetrogaz.sn/2020/02/27/loi-n2019-04-du-24-janvier-2019-relative-au-contenu-local-dans-le-secteur-des-hydrocarbures-2/" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A19" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A22" r:id="rId12" display="https://www.lexology.com/library/detail.aspx?g=701d413d-0956-4dd4-8e9a-7d5848efd5ed" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A26" r:id="rId13" display="https://itie.sn/" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A29" r:id="rId14" display="https://appsenegal.com/" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{58E2327D-7471-4A8C-B594-16AB6B60B088}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId16"/>
   <webPublishItems count="1">
     <webPublishItem id="27160" divId="Senegal_Workbook_27160" sourceType="range" sourceRef="A1:D30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Senegal\Senegal_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
